--- a/КМК с 01.08.xlsx
+++ b/КМК с 01.08.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="15480" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="15480" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3957" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1077">
   <si>
     <t>№</t>
   </si>
@@ -3277,6 +3277,12 @@
   </si>
   <si>
     <t>2420 x 2130 x 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Набор мебели для спальни "Розалия" КМК 0456 (ПЛЁНКА СОФТ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> в т.ч. дуб молочный, орех экко, белый софт </t>
   </si>
 </sst>
 </file>
@@ -3927,8 +3933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E301"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8468,8 +8474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8541,7 +8547,7 @@
         <v>331</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E66" si="1">IF(D3&lt;&gt;0,IF(D3&gt;1000,ROUND(D3*1.08,1),ROUND(D3*1.1,1)),"")*10000</f>
+        <f t="shared" ref="E3:E61" si="1">IF(D3&lt;&gt;0,IF(D3&gt;1000,ROUND(D3*1.08,1),ROUND(D3*1.1,1)),"")*10000</f>
         <v>3641000</v>
       </c>
       <c r="F3" s="13" t="s">
@@ -10236,7 +10242,7 @@
         <v>952</v>
       </c>
       <c r="E78" s="12">
-        <f t="shared" ref="E67:E130" si="9">IF(D78&lt;&gt;0,IF(D78&gt;1000,ROUND(D78*1.08,1),ROUND(D78*1.1,1)),"")*10000</f>
+        <f t="shared" ref="E78:E130" si="9">IF(D78&lt;&gt;0,IF(D78&gt;1000,ROUND(D78*1.08,1),ROUND(D78*1.1,1)),"")*10000</f>
         <v>10472000</v>
       </c>
       <c r="F78" s="13" t="s">
@@ -11439,7 +11445,7 @@
         <v>246</v>
       </c>
       <c r="E131" s="12">
-        <f t="shared" ref="E131:E194" si="20">IF(D131&lt;&gt;0,IF(D131&gt;1000,ROUND(D131*1.08,1),ROUND(D131*1.1,1)),"")*10000</f>
+        <f t="shared" ref="E131:E193" si="20">IF(D131&lt;&gt;0,IF(D131&gt;1000,ROUND(D131*1.08,1),ROUND(D131*1.1,1)),"")*10000</f>
         <v>2706000</v>
       </c>
       <c r="F131" s="13" t="s">
@@ -12984,7 +12990,7 @@
         <v>687</v>
       </c>
       <c r="E199" s="12">
-        <f t="shared" ref="E195:E258" si="29">IF(D199&lt;&gt;0,IF(D199&gt;1000,ROUND(D199*1.08,1),ROUND(D199*1.1,1)),"")*10000</f>
+        <f t="shared" ref="E199:E247" si="29">IF(D199&lt;&gt;0,IF(D199&gt;1000,ROUND(D199*1.08,1),ROUND(D199*1.1,1)),"")*10000</f>
         <v>7557000</v>
       </c>
       <c r="F199" s="13" t="s">
@@ -14397,7 +14403,7 @@
         <v>249</v>
       </c>
       <c r="E261" s="12">
-        <f t="shared" ref="E259:E322" si="34">IF(D261&lt;&gt;0,IF(D261&gt;1000,ROUND(D261*1.08,1),ROUND(D261*1.1,1)),"")*10000</f>
+        <f t="shared" ref="E261:E322" si="34">IF(D261&lt;&gt;0,IF(D261&gt;1000,ROUND(D261*1.08,1),ROUND(D261*1.1,1)),"")*10000</f>
         <v>2739000</v>
       </c>
       <c r="F261" s="13" t="s">
@@ -15883,7 +15889,7 @@
         <v>3604</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>212</v>
+        <v>1075</v>
       </c>
       <c r="C328" s="14" t="str">
         <f>C321</f>
@@ -16988,8 +16994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U377"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26:S26"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S348" sqref="S348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30551,7 +30557,7 @@
       </c>
       <c r="C328" s="56" t="str">
         <f>Лист2!B328</f>
-        <v xml:space="preserve"> Набор мебели для спальни "Розалия" КМК 0456 (ПЛЁНКА СОФТ)  в т.ч. дуб молочный, орех экко, белый софт </v>
+        <v xml:space="preserve"> Набор мебели для спальни "Розалия" КМК 0456 (ПЛЁНКА СОФТ)</v>
       </c>
       <c r="D328" s="58" t="s">
         <v>1069</v>
@@ -30566,6 +30572,9 @@
       </c>
       <c r="K328" s="38" t="s">
         <v>844</v>
+      </c>
+      <c r="R328" s="40" t="s">
+        <v>1076</v>
       </c>
       <c r="S328" s="38">
         <v>1</v>
@@ -31157,7 +31166,7 @@
         <v>844</v>
       </c>
       <c r="S347" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:19" ht="30">

--- a/КМК с 01.08.xlsx
+++ b/КМК с 01.08.xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1076">
   <si>
     <t>№</t>
   </si>
@@ -3262,9 +3262,6 @@
   </si>
   <si>
     <t>Спальни</t>
-  </si>
-  <si>
-    <t>Детские</t>
   </si>
   <si>
     <t>Прихожие</t>
@@ -8474,8 +8471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G377"/>
   <sheetViews>
-    <sheetView topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+    <sheetView topLeftCell="A321" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15889,7 +15886,7 @@
         <v>3604</v>
       </c>
       <c r="B328" s="33" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C328" s="14" t="str">
         <f>C321</f>
@@ -16994,8 +16991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S348" sqref="S348"/>
+    <sheetView tabSelected="1" topLeftCell="A336" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D350" sqref="D350:D351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17101,7 +17098,7 @@
       </c>
       <c r="I2" s="38"/>
       <c r="J2" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K2" s="38" t="s">
         <v>844</v>
@@ -17144,7 +17141,7 @@
       </c>
       <c r="I3" s="38"/>
       <c r="J3" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K3" s="38" t="s">
         <v>844</v>
@@ -17187,7 +17184,7 @@
       </c>
       <c r="I4" s="38"/>
       <c r="J4" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>844</v>
@@ -17230,7 +17227,7 @@
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K5" s="38" t="s">
         <v>844</v>
@@ -17273,7 +17270,7 @@
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K6" s="38" t="s">
         <v>844</v>
@@ -17316,7 +17313,7 @@
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K7" s="38" t="s">
         <v>844</v>
@@ -17359,7 +17356,7 @@
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K8" s="38" t="s">
         <v>844</v>
@@ -17402,7 +17399,7 @@
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K9" s="38" t="s">
         <v>844</v>
@@ -17445,7 +17442,7 @@
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K10" s="38" t="s">
         <v>844</v>
@@ -17488,7 +17485,7 @@
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K11" s="38" t="s">
         <v>844</v>
@@ -17531,7 +17528,7 @@
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K12" s="38" t="s">
         <v>844</v>
@@ -17574,7 +17571,7 @@
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K13" s="38" t="s">
         <v>844</v>
@@ -17617,7 +17614,7 @@
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K14" s="38" t="s">
         <v>844</v>
@@ -17660,7 +17657,7 @@
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K15" s="38" t="s">
         <v>844</v>
@@ -17703,7 +17700,7 @@
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>844</v>
@@ -17746,7 +17743,7 @@
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>844</v>
@@ -17789,7 +17786,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>844</v>
@@ -17832,7 +17829,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>844</v>
@@ -17875,7 +17872,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>844</v>
@@ -17918,7 +17915,7 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>844</v>
@@ -17961,7 +17958,7 @@
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K22" s="38" t="s">
         <v>844</v>
@@ -18004,7 +18001,7 @@
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K23" s="38" t="s">
         <v>844</v>
@@ -18047,7 +18044,7 @@
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K24" s="38" t="s">
         <v>844</v>
@@ -18090,7 +18087,7 @@
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K25" s="38" t="s">
         <v>844</v>
@@ -18133,7 +18130,7 @@
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K26" s="38" t="s">
         <v>844</v>
@@ -18176,7 +18173,7 @@
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K27" s="38" t="s">
         <v>844</v>
@@ -18219,7 +18216,7 @@
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K28" s="38" t="s">
         <v>844</v>
@@ -18262,7 +18259,7 @@
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K29" s="38" t="s">
         <v>844</v>
@@ -18305,7 +18302,7 @@
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K30" s="38" t="s">
         <v>844</v>
@@ -18348,7 +18345,7 @@
       </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K31" s="38" t="s">
         <v>844</v>
@@ -18391,7 +18388,7 @@
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K32" s="38" t="s">
         <v>844</v>
@@ -18434,7 +18431,7 @@
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K33" s="38" t="s">
         <v>844</v>
@@ -18477,7 +18474,7 @@
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K34" s="38" t="s">
         <v>844</v>
@@ -18520,7 +18517,7 @@
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K35" s="38" t="s">
         <v>844</v>
@@ -18553,7 +18550,7 @@
       </c>
       <c r="E36" s="38"/>
       <c r="F36" s="52" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>842</v>
@@ -18563,7 +18560,7 @@
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K36" s="38" t="s">
         <v>844</v>
@@ -18606,7 +18603,7 @@
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K37" s="38" t="s">
         <v>844</v>
@@ -18649,7 +18646,7 @@
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K38" s="38" t="s">
         <v>844</v>
@@ -18692,7 +18689,7 @@
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K39" s="38" t="s">
         <v>844</v>
@@ -18735,7 +18732,7 @@
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K40" s="38" t="s">
         <v>844</v>
@@ -18778,7 +18775,7 @@
       </c>
       <c r="I41" s="38"/>
       <c r="J41" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K41" s="38" t="s">
         <v>844</v>
@@ -18821,7 +18818,7 @@
       </c>
       <c r="I42" s="38"/>
       <c r="J42" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K42" s="38" t="s">
         <v>844</v>
@@ -18864,7 +18861,7 @@
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K43" s="38" t="s">
         <v>844</v>
@@ -18907,7 +18904,7 @@
       </c>
       <c r="I44" s="38"/>
       <c r="J44" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K44" s="38" t="s">
         <v>844</v>
@@ -18950,7 +18947,7 @@
       </c>
       <c r="I45" s="38"/>
       <c r="J45" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K45" s="38" t="s">
         <v>844</v>
@@ -18993,7 +18990,7 @@
       </c>
       <c r="I46" s="38"/>
       <c r="J46" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K46" s="38" t="s">
         <v>844</v>
@@ -19036,7 +19033,7 @@
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K47" s="38" t="s">
         <v>844</v>
@@ -19079,7 +19076,7 @@
       </c>
       <c r="I48" s="38"/>
       <c r="J48" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K48" s="38" t="s">
         <v>844</v>
@@ -19122,7 +19119,7 @@
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K49" s="38" t="s">
         <v>844</v>
@@ -19165,7 +19162,7 @@
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K50" s="38" t="s">
         <v>844</v>
@@ -19208,7 +19205,7 @@
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K51" s="38" t="s">
         <v>844</v>
@@ -19251,7 +19248,7 @@
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K52" s="38" t="s">
         <v>844</v>
@@ -19294,7 +19291,7 @@
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K53" s="38" t="s">
         <v>844</v>
@@ -19337,7 +19334,7 @@
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K54" s="38" t="s">
         <v>844</v>
@@ -19380,7 +19377,7 @@
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K55" s="38" t="s">
         <v>844</v>
@@ -19423,7 +19420,7 @@
       </c>
       <c r="I56" s="38"/>
       <c r="J56" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K56" s="38" t="s">
         <v>844</v>
@@ -19466,7 +19463,7 @@
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K57" s="38" t="s">
         <v>844</v>
@@ -19509,7 +19506,7 @@
       </c>
       <c r="I58" s="38"/>
       <c r="J58" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K58" s="38" t="s">
         <v>844</v>
@@ -19552,7 +19549,7 @@
       </c>
       <c r="I59" s="38"/>
       <c r="J59" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K59" s="38" t="s">
         <v>844</v>
@@ -19595,7 +19592,7 @@
       </c>
       <c r="I60" s="38"/>
       <c r="J60" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K60" s="38" t="s">
         <v>844</v>
@@ -19638,7 +19635,7 @@
       </c>
       <c r="I61" s="38"/>
       <c r="J61" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K61" s="38" t="s">
         <v>844</v>
@@ -19681,7 +19678,7 @@
       </c>
       <c r="I62" s="38"/>
       <c r="J62" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K62" s="38" t="s">
         <v>844</v>
@@ -19724,7 +19721,7 @@
       </c>
       <c r="I63" s="38"/>
       <c r="J63" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K63" s="38" t="s">
         <v>844</v>
@@ -19767,7 +19764,7 @@
       </c>
       <c r="I64" s="38"/>
       <c r="J64" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K64" s="38" t="s">
         <v>844</v>
@@ -19810,7 +19807,7 @@
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K65" s="38" t="s">
         <v>844</v>
@@ -19853,7 +19850,7 @@
       </c>
       <c r="I66" s="38"/>
       <c r="J66" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K66" s="38" t="s">
         <v>844</v>
@@ -19896,7 +19893,7 @@
       </c>
       <c r="I67" s="38"/>
       <c r="J67" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K67" s="38" t="s">
         <v>844</v>
@@ -19939,7 +19936,7 @@
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K68" s="38" t="s">
         <v>844</v>
@@ -19982,7 +19979,7 @@
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K69" s="38" t="s">
         <v>844</v>
@@ -20025,7 +20022,7 @@
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K70" s="38" t="s">
         <v>844</v>
@@ -20068,7 +20065,7 @@
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K71" s="38" t="s">
         <v>844</v>
@@ -20111,7 +20108,7 @@
       </c>
       <c r="I72" s="38"/>
       <c r="J72" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K72" s="38" t="s">
         <v>844</v>
@@ -20154,7 +20151,7 @@
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K73" s="38" t="s">
         <v>844</v>
@@ -20197,7 +20194,7 @@
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K74" s="38" t="s">
         <v>844</v>
@@ -20240,7 +20237,7 @@
       </c>
       <c r="I75" s="38"/>
       <c r="J75" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K75" s="38" t="s">
         <v>844</v>
@@ -20283,7 +20280,7 @@
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K76" s="38" t="s">
         <v>844</v>
@@ -20326,7 +20323,7 @@
       </c>
       <c r="I77" s="38"/>
       <c r="J77" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K77" s="38" t="s">
         <v>844</v>
@@ -20369,7 +20366,7 @@
       </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K78" s="38" t="s">
         <v>844</v>
@@ -20410,7 +20407,7 @@
       </c>
       <c r="I79" s="38"/>
       <c r="J79" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K79" s="38" t="s">
         <v>844</v>
@@ -20453,7 +20450,7 @@
       </c>
       <c r="I80" s="38"/>
       <c r="J80" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K80" s="38" t="s">
         <v>844</v>
@@ -20496,7 +20493,7 @@
       </c>
       <c r="I81" s="38"/>
       <c r="J81" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K81" s="38" t="s">
         <v>844</v>
@@ -20539,7 +20536,7 @@
       </c>
       <c r="I82" s="38"/>
       <c r="J82" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K82" s="38" t="s">
         <v>844</v>
@@ -20582,7 +20579,7 @@
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K83" s="38" t="s">
         <v>844</v>
@@ -20625,7 +20622,7 @@
       </c>
       <c r="I84" s="38"/>
       <c r="J84" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K84" s="38" t="s">
         <v>844</v>
@@ -20666,7 +20663,7 @@
       </c>
       <c r="I85" s="38"/>
       <c r="J85" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K85" s="38" t="s">
         <v>844</v>
@@ -20707,7 +20704,7 @@
       </c>
       <c r="I86" s="38"/>
       <c r="J86" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K86" s="38" t="s">
         <v>844</v>
@@ -20750,7 +20747,7 @@
       </c>
       <c r="I87" s="38"/>
       <c r="J87" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K87" s="38" t="s">
         <v>844</v>
@@ -20793,7 +20790,7 @@
       </c>
       <c r="I88" s="38"/>
       <c r="J88" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K88" s="38" t="s">
         <v>844</v>
@@ -20836,7 +20833,7 @@
       </c>
       <c r="I89" s="38"/>
       <c r="J89" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K89" s="38" t="s">
         <v>844</v>
@@ -20879,7 +20876,7 @@
       </c>
       <c r="I90" s="38"/>
       <c r="J90" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K90" s="38" t="s">
         <v>844</v>
@@ -20922,7 +20919,7 @@
       </c>
       <c r="I91" s="38"/>
       <c r="J91" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K91" s="38" t="s">
         <v>844</v>
@@ -20965,7 +20962,7 @@
       </c>
       <c r="I92" s="38"/>
       <c r="J92" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K92" s="38" t="s">
         <v>844</v>
@@ -21008,7 +21005,7 @@
       </c>
       <c r="I93" s="38"/>
       <c r="J93" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K93" s="38" t="s">
         <v>844</v>
@@ -21051,7 +21048,7 @@
       </c>
       <c r="I94" s="38"/>
       <c r="J94" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K94" s="38" t="s">
         <v>844</v>
@@ -21094,7 +21091,7 @@
       </c>
       <c r="I95" s="38"/>
       <c r="J95" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K95" s="38" t="s">
         <v>844</v>
@@ -21137,7 +21134,7 @@
       </c>
       <c r="I96" s="38"/>
       <c r="J96" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K96" s="38" t="s">
         <v>844</v>
@@ -21180,7 +21177,7 @@
       </c>
       <c r="I97" s="38"/>
       <c r="J97" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K97" s="38" t="s">
         <v>844</v>
@@ -21223,7 +21220,7 @@
       </c>
       <c r="I98" s="38"/>
       <c r="J98" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K98" s="38" t="s">
         <v>844</v>
@@ -21266,7 +21263,7 @@
       </c>
       <c r="I99" s="38"/>
       <c r="J99" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K99" s="38" t="s">
         <v>844</v>
@@ -21309,7 +21306,7 @@
       </c>
       <c r="I100" s="38"/>
       <c r="J100" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K100" s="38" t="s">
         <v>844</v>
@@ -21352,7 +21349,7 @@
       </c>
       <c r="I101" s="38"/>
       <c r="J101" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K101" s="38" t="s">
         <v>844</v>
@@ -21395,7 +21392,7 @@
       </c>
       <c r="I102" s="38"/>
       <c r="J102" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K102" s="38" t="s">
         <v>844</v>
@@ -21438,7 +21435,7 @@
       </c>
       <c r="I103" s="38"/>
       <c r="J103" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K103" s="38" t="s">
         <v>844</v>
@@ -21481,7 +21478,7 @@
       </c>
       <c r="I104" s="38"/>
       <c r="J104" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K104" s="38" t="s">
         <v>844</v>
@@ -21524,7 +21521,7 @@
       </c>
       <c r="I105" s="38"/>
       <c r="J105" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K105" s="38" t="s">
         <v>844</v>
@@ -21567,7 +21564,7 @@
       </c>
       <c r="I106" s="38"/>
       <c r="J106" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K106" s="38" t="s">
         <v>844</v>
@@ -21610,7 +21607,7 @@
       </c>
       <c r="I107" s="38"/>
       <c r="J107" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K107" s="38" t="s">
         <v>844</v>
@@ -21653,7 +21650,7 @@
       </c>
       <c r="I108" s="38"/>
       <c r="J108" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K108" s="38" t="s">
         <v>844</v>
@@ -21696,7 +21693,7 @@
       </c>
       <c r="I109" s="38"/>
       <c r="J109" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K109" s="38" t="s">
         <v>844</v>
@@ -21739,7 +21736,7 @@
       </c>
       <c r="I110" s="38"/>
       <c r="J110" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K110" s="38" t="s">
         <v>844</v>
@@ -21780,7 +21777,7 @@
       </c>
       <c r="I111" s="38"/>
       <c r="J111" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K111" s="38" t="s">
         <v>844</v>
@@ -21823,7 +21820,7 @@
       </c>
       <c r="I112" s="38"/>
       <c r="J112" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K112" s="38" t="s">
         <v>844</v>
@@ -21866,7 +21863,7 @@
       </c>
       <c r="I113" s="38"/>
       <c r="J113" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K113" s="38" t="s">
         <v>844</v>
@@ -21909,7 +21906,7 @@
       </c>
       <c r="I114" s="38"/>
       <c r="J114" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K114" s="38" t="s">
         <v>844</v>
@@ -21952,7 +21949,7 @@
       </c>
       <c r="I115" s="38"/>
       <c r="J115" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K115" s="38" t="s">
         <v>844</v>
@@ -21995,7 +21992,7 @@
       </c>
       <c r="I116" s="38"/>
       <c r="J116" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K116" s="38" t="s">
         <v>844</v>
@@ -22038,7 +22035,7 @@
       </c>
       <c r="I117" s="38"/>
       <c r="J117" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K117" s="38" t="s">
         <v>844</v>
@@ -22081,7 +22078,7 @@
       </c>
       <c r="I118" s="38"/>
       <c r="J118" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K118" s="38" t="s">
         <v>844</v>
@@ -22124,7 +22121,7 @@
       </c>
       <c r="I119" s="38"/>
       <c r="J119" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K119" s="38" t="s">
         <v>844</v>
@@ -22167,7 +22164,7 @@
       </c>
       <c r="I120" s="38"/>
       <c r="J120" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K120" s="38" t="s">
         <v>844</v>
@@ -22210,7 +22207,7 @@
       </c>
       <c r="I121" s="38"/>
       <c r="J121" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K121" s="38" t="s">
         <v>844</v>
@@ -22253,7 +22250,7 @@
       </c>
       <c r="I122" s="38"/>
       <c r="J122" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K122" s="38" t="s">
         <v>844</v>
@@ -22296,7 +22293,7 @@
       </c>
       <c r="I123" s="38"/>
       <c r="J123" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K123" s="38" t="s">
         <v>844</v>
@@ -22339,7 +22336,7 @@
       </c>
       <c r="I124" s="38"/>
       <c r="J124" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K124" s="38" t="s">
         <v>844</v>
@@ -22382,7 +22379,7 @@
       </c>
       <c r="I125" s="38"/>
       <c r="J125" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K125" s="38" t="s">
         <v>844</v>
@@ -22425,7 +22422,7 @@
       </c>
       <c r="I126" s="38"/>
       <c r="J126" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K126" s="38" t="s">
         <v>844</v>
@@ -22468,7 +22465,7 @@
       </c>
       <c r="I127" s="38"/>
       <c r="J127" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K127" s="38" t="s">
         <v>844</v>
@@ -22511,7 +22508,7 @@
       </c>
       <c r="I128" s="38"/>
       <c r="J128" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K128" s="38" t="s">
         <v>844</v>
@@ -22554,7 +22551,7 @@
       </c>
       <c r="I129" s="38"/>
       <c r="J129" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K129" s="38" t="s">
         <v>844</v>
@@ -22597,7 +22594,7 @@
       </c>
       <c r="I130" s="38"/>
       <c r="J130" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K130" s="38" t="s">
         <v>844</v>
@@ -22640,7 +22637,7 @@
       </c>
       <c r="I131" s="38"/>
       <c r="J131" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K131" s="38" t="s">
         <v>844</v>
@@ -22683,7 +22680,7 @@
       </c>
       <c r="I132" s="38"/>
       <c r="J132" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K132" s="38" t="s">
         <v>844</v>
@@ -22726,7 +22723,7 @@
       </c>
       <c r="I133" s="38"/>
       <c r="J133" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K133" s="38" t="s">
         <v>844</v>
@@ -22769,7 +22766,7 @@
       </c>
       <c r="I134" s="38"/>
       <c r="J134" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K134" s="38" t="s">
         <v>844</v>
@@ -22812,7 +22809,7 @@
       </c>
       <c r="I135" s="38"/>
       <c r="J135" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K135" s="38" t="s">
         <v>844</v>
@@ -22855,7 +22852,7 @@
       </c>
       <c r="I136" s="38"/>
       <c r="J136" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K136" s="38" t="s">
         <v>844</v>
@@ -22898,7 +22895,7 @@
       </c>
       <c r="I137" s="38"/>
       <c r="J137" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K137" s="38" t="s">
         <v>844</v>
@@ -22941,7 +22938,7 @@
       </c>
       <c r="I138" s="38"/>
       <c r="J138" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K138" s="38" t="s">
         <v>844</v>
@@ -22984,7 +22981,7 @@
       </c>
       <c r="I139" s="38"/>
       <c r="J139" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K139" s="38" t="s">
         <v>844</v>
@@ -23027,7 +23024,7 @@
       </c>
       <c r="I140" s="38"/>
       <c r="J140" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K140" s="38" t="s">
         <v>844</v>
@@ -23070,7 +23067,7 @@
       </c>
       <c r="I141" s="38"/>
       <c r="J141" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K141" s="38" t="s">
         <v>844</v>
@@ -23113,7 +23110,7 @@
       </c>
       <c r="I142" s="38"/>
       <c r="J142" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K142" s="38" t="s">
         <v>844</v>
@@ -23156,7 +23153,7 @@
       </c>
       <c r="I143" s="38"/>
       <c r="J143" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K143" s="38" t="s">
         <v>844</v>
@@ -23199,7 +23196,7 @@
       </c>
       <c r="I144" s="38"/>
       <c r="J144" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K144" s="38" t="s">
         <v>844</v>
@@ -23242,7 +23239,7 @@
       </c>
       <c r="I145" s="38"/>
       <c r="J145" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K145" s="38" t="s">
         <v>844</v>
@@ -23285,7 +23282,7 @@
       </c>
       <c r="I146" s="38"/>
       <c r="J146" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K146" s="38" t="s">
         <v>844</v>
@@ -23328,7 +23325,7 @@
       </c>
       <c r="I147" s="38"/>
       <c r="J147" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K147" s="38" t="s">
         <v>844</v>
@@ -23371,7 +23368,7 @@
       </c>
       <c r="I148" s="38"/>
       <c r="J148" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K148" s="38" t="s">
         <v>844</v>
@@ -23414,7 +23411,7 @@
       </c>
       <c r="I149" s="38"/>
       <c r="J149" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K149" s="38" t="s">
         <v>844</v>
@@ -23457,7 +23454,7 @@
       </c>
       <c r="I150" s="38"/>
       <c r="J150" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K150" s="38" t="s">
         <v>844</v>
@@ -23500,7 +23497,7 @@
       </c>
       <c r="I151" s="38"/>
       <c r="J151" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K151" s="38" t="s">
         <v>844</v>
@@ -23543,7 +23540,7 @@
       </c>
       <c r="I152" s="38"/>
       <c r="J152" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K152" s="38" t="s">
         <v>844</v>
@@ -23586,7 +23583,7 @@
       </c>
       <c r="I153" s="38"/>
       <c r="J153" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K153" s="38" t="s">
         <v>844</v>
@@ -23629,7 +23626,7 @@
       </c>
       <c r="I154" s="38"/>
       <c r="J154" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K154" s="38" t="s">
         <v>844</v>
@@ -23672,7 +23669,7 @@
       </c>
       <c r="I155" s="38"/>
       <c r="J155" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K155" s="38" t="s">
         <v>844</v>
@@ -23715,7 +23712,7 @@
       </c>
       <c r="I156" s="38"/>
       <c r="J156" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K156" s="38" t="s">
         <v>844</v>
@@ -23758,7 +23755,7 @@
       </c>
       <c r="I157" s="38"/>
       <c r="J157" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K157" s="38" t="s">
         <v>844</v>
@@ -23801,7 +23798,7 @@
       </c>
       <c r="I158" s="38"/>
       <c r="J158" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K158" s="38" t="s">
         <v>844</v>
@@ -23844,7 +23841,7 @@
       </c>
       <c r="I159" s="38"/>
       <c r="J159" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K159" s="38" t="s">
         <v>844</v>
@@ -23887,7 +23884,7 @@
       </c>
       <c r="I160" s="38"/>
       <c r="J160" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K160" s="38" t="s">
         <v>844</v>
@@ -23930,7 +23927,7 @@
       </c>
       <c r="I161" s="38"/>
       <c r="J161" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K161" s="38" t="s">
         <v>844</v>
@@ -23973,7 +23970,7 @@
       </c>
       <c r="I162" s="38"/>
       <c r="J162" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K162" s="38" t="s">
         <v>844</v>
@@ -24016,7 +24013,7 @@
       </c>
       <c r="I163" s="38"/>
       <c r="J163" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K163" s="38" t="s">
         <v>844</v>
@@ -24059,7 +24056,7 @@
       </c>
       <c r="I164" s="38"/>
       <c r="J164" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K164" s="38" t="s">
         <v>844</v>
@@ -24102,7 +24099,7 @@
       </c>
       <c r="I165" s="38"/>
       <c r="J165" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K165" s="38" t="s">
         <v>844</v>
@@ -24145,7 +24142,7 @@
       </c>
       <c r="I166" s="38"/>
       <c r="J166" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K166" s="38" t="s">
         <v>844</v>
@@ -24188,7 +24185,7 @@
       </c>
       <c r="I167" s="38"/>
       <c r="J167" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K167" s="38" t="s">
         <v>844</v>
@@ -24229,7 +24226,7 @@
       </c>
       <c r="I168" s="38"/>
       <c r="J168" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K168" s="38" t="s">
         <v>844</v>
@@ -24272,7 +24269,7 @@
       </c>
       <c r="I169" s="38"/>
       <c r="J169" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K169" s="38" t="s">
         <v>844</v>
@@ -24315,7 +24312,7 @@
       </c>
       <c r="I170" s="38"/>
       <c r="J170" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K170" s="38" t="s">
         <v>844</v>
@@ -24358,7 +24355,7 @@
       </c>
       <c r="I171" s="38"/>
       <c r="J171" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K171" s="38" t="s">
         <v>844</v>
@@ -24401,7 +24398,7 @@
       </c>
       <c r="I172" s="38"/>
       <c r="J172" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K172" s="38" t="s">
         <v>844</v>
@@ -24444,7 +24441,7 @@
       </c>
       <c r="I173" s="38"/>
       <c r="J173" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K173" s="38" t="s">
         <v>844</v>
@@ -24487,7 +24484,7 @@
       </c>
       <c r="I174" s="38"/>
       <c r="J174" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K174" s="38" t="s">
         <v>844</v>
@@ -24530,7 +24527,7 @@
       </c>
       <c r="I175" s="38"/>
       <c r="J175" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K175" s="38" t="s">
         <v>844</v>
@@ -24573,7 +24570,7 @@
       </c>
       <c r="I176" s="38"/>
       <c r="J176" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K176" s="38" t="s">
         <v>844</v>
@@ -24616,7 +24613,7 @@
       </c>
       <c r="I177" s="38"/>
       <c r="J177" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K177" s="38" t="s">
         <v>844</v>
@@ -24659,7 +24656,7 @@
       </c>
       <c r="I178" s="38"/>
       <c r="J178" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K178" s="38" t="s">
         <v>844</v>
@@ -24702,7 +24699,7 @@
       </c>
       <c r="I179" s="38"/>
       <c r="J179" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K179" s="38" t="s">
         <v>844</v>
@@ -24745,7 +24742,7 @@
       </c>
       <c r="I180" s="38"/>
       <c r="J180" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K180" s="38" t="s">
         <v>844</v>
@@ -24788,7 +24785,7 @@
       </c>
       <c r="I181" s="38"/>
       <c r="J181" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K181" s="38" t="s">
         <v>844</v>
@@ -24831,7 +24828,7 @@
       </c>
       <c r="I182" s="38"/>
       <c r="J182" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K182" s="38" t="s">
         <v>844</v>
@@ -24874,7 +24871,7 @@
       </c>
       <c r="I183" s="38"/>
       <c r="J183" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K183" s="38" t="s">
         <v>844</v>
@@ -24917,7 +24914,7 @@
       </c>
       <c r="I184" s="38"/>
       <c r="J184" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K184" s="38" t="s">
         <v>844</v>
@@ -24960,7 +24957,7 @@
       </c>
       <c r="I185" s="38"/>
       <c r="J185" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K185" s="38" t="s">
         <v>844</v>
@@ -25003,7 +25000,7 @@
       </c>
       <c r="I186" s="38"/>
       <c r="J186" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K186" s="38" t="s">
         <v>844</v>
@@ -25046,7 +25043,7 @@
       </c>
       <c r="I187" s="38"/>
       <c r="J187" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K187" s="38" t="s">
         <v>844</v>
@@ -25089,7 +25086,7 @@
       </c>
       <c r="I188" s="38"/>
       <c r="J188" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K188" s="38" t="s">
         <v>844</v>
@@ -25132,7 +25129,7 @@
       </c>
       <c r="I189" s="38"/>
       <c r="J189" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K189" s="38" t="s">
         <v>844</v>
@@ -25175,7 +25172,7 @@
       </c>
       <c r="I190" s="38"/>
       <c r="J190" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K190" s="38" t="s">
         <v>844</v>
@@ -25218,7 +25215,7 @@
       </c>
       <c r="I191" s="38"/>
       <c r="J191" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K191" s="38" t="s">
         <v>844</v>
@@ -25261,7 +25258,7 @@
       </c>
       <c r="I192" s="38"/>
       <c r="J192" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K192" s="38" t="s">
         <v>844</v>
@@ -25302,7 +25299,7 @@
       </c>
       <c r="I193" s="38"/>
       <c r="J193" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K193" s="38" t="s">
         <v>844</v>
@@ -25345,7 +25342,7 @@
       </c>
       <c r="I194" s="38"/>
       <c r="J194" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K194" s="38" t="s">
         <v>844</v>
@@ -25388,7 +25385,7 @@
       </c>
       <c r="I195" s="38"/>
       <c r="J195" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K195" s="38" t="s">
         <v>844</v>
@@ -25431,7 +25428,7 @@
       </c>
       <c r="I196" s="38"/>
       <c r="J196" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K196" s="38" t="s">
         <v>844</v>
@@ -25474,7 +25471,7 @@
       </c>
       <c r="I197" s="38"/>
       <c r="J197" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K197" s="38" t="s">
         <v>844</v>
@@ -25517,7 +25514,7 @@
       </c>
       <c r="I198" s="38"/>
       <c r="J198" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K198" s="38" t="s">
         <v>844</v>
@@ -25560,7 +25557,7 @@
       </c>
       <c r="I199" s="38"/>
       <c r="J199" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K199" s="38" t="s">
         <v>844</v>
@@ -25603,7 +25600,7 @@
       </c>
       <c r="I200" s="38"/>
       <c r="J200" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K200" s="38" t="s">
         <v>844</v>
@@ -25646,7 +25643,7 @@
       </c>
       <c r="I201" s="38"/>
       <c r="J201" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K201" s="38" t="s">
         <v>844</v>
@@ -25689,7 +25686,7 @@
       </c>
       <c r="I202" s="38"/>
       <c r="J202" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K202" s="38" t="s">
         <v>844</v>
@@ -25732,7 +25729,7 @@
       </c>
       <c r="I203" s="38"/>
       <c r="J203" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K203" s="38" t="s">
         <v>844</v>
@@ -25775,7 +25772,7 @@
       </c>
       <c r="I204" s="38"/>
       <c r="J204" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K204" s="38" t="s">
         <v>844</v>
@@ -25818,7 +25815,7 @@
       </c>
       <c r="I205" s="38"/>
       <c r="J205" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K205" s="38" t="s">
         <v>844</v>
@@ -25861,7 +25858,7 @@
       </c>
       <c r="I206" s="38"/>
       <c r="J206" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K206" s="38" t="s">
         <v>844</v>
@@ -25904,7 +25901,7 @@
       </c>
       <c r="I207" s="38"/>
       <c r="J207" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K207" s="38" t="s">
         <v>844</v>
@@ -25947,7 +25944,7 @@
       </c>
       <c r="I208" s="38"/>
       <c r="J208" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K208" s="38" t="s">
         <v>844</v>
@@ -25990,7 +25987,7 @@
       </c>
       <c r="I209" s="38"/>
       <c r="J209" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K209" s="38" t="s">
         <v>844</v>
@@ -26033,7 +26030,7 @@
       </c>
       <c r="I210" s="38"/>
       <c r="J210" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K210" s="38" t="s">
         <v>844</v>
@@ -26076,7 +26073,7 @@
       </c>
       <c r="I211" s="38"/>
       <c r="J211" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K211" s="38" t="s">
         <v>844</v>
@@ -26119,7 +26116,7 @@
       </c>
       <c r="I212" s="38"/>
       <c r="J212" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K212" s="38" t="s">
         <v>844</v>
@@ -26162,7 +26159,7 @@
       </c>
       <c r="I213" s="38"/>
       <c r="J213" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K213" s="38" t="s">
         <v>844</v>
@@ -26205,7 +26202,7 @@
       </c>
       <c r="I214" s="38"/>
       <c r="J214" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K214" s="38" t="s">
         <v>844</v>
@@ -26248,7 +26245,7 @@
       </c>
       <c r="I215" s="38"/>
       <c r="J215" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K215" s="38" t="s">
         <v>844</v>
@@ -26291,7 +26288,7 @@
       </c>
       <c r="I216" s="38"/>
       <c r="J216" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K216" s="38" t="s">
         <v>844</v>
@@ -26334,7 +26331,7 @@
       </c>
       <c r="I217" s="38"/>
       <c r="J217" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K217" s="38" t="s">
         <v>844</v>
@@ -26377,7 +26374,7 @@
       </c>
       <c r="I218" s="38"/>
       <c r="J218" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K218" s="38" t="s">
         <v>844</v>
@@ -26420,7 +26417,7 @@
       </c>
       <c r="I219" s="38"/>
       <c r="J219" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K219" s="38" t="s">
         <v>844</v>
@@ -26463,7 +26460,7 @@
       </c>
       <c r="I220" s="38"/>
       <c r="J220" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K220" s="38" t="s">
         <v>844</v>
@@ -26506,7 +26503,7 @@
       </c>
       <c r="I221" s="38"/>
       <c r="J221" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K221" s="38" t="s">
         <v>844</v>
@@ -26549,7 +26546,7 @@
       </c>
       <c r="I222" s="38"/>
       <c r="J222" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K222" s="38" t="s">
         <v>844</v>
@@ -26592,7 +26589,7 @@
       </c>
       <c r="I223" s="38"/>
       <c r="J223" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K223" s="38" t="s">
         <v>844</v>
@@ -26635,7 +26632,7 @@
       </c>
       <c r="I224" s="38"/>
       <c r="J224" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K224" s="38" t="s">
         <v>844</v>
@@ -26678,7 +26675,7 @@
       </c>
       <c r="I225" s="38"/>
       <c r="J225" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K225" s="38" t="s">
         <v>844</v>
@@ -26721,7 +26718,7 @@
       </c>
       <c r="I226" s="38"/>
       <c r="J226" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K226" s="38" t="s">
         <v>844</v>
@@ -26764,7 +26761,7 @@
       </c>
       <c r="I227" s="38"/>
       <c r="J227" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K227" s="38" t="s">
         <v>844</v>
@@ -26807,7 +26804,7 @@
       </c>
       <c r="I228" s="38"/>
       <c r="J228" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K228" s="38" t="s">
         <v>844</v>
@@ -26850,7 +26847,7 @@
       </c>
       <c r="I229" s="38"/>
       <c r="J229" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K229" s="38" t="s">
         <v>844</v>
@@ -26893,7 +26890,7 @@
       </c>
       <c r="I230" s="38"/>
       <c r="J230" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K230" s="38" t="s">
         <v>844</v>
@@ -26936,7 +26933,7 @@
       </c>
       <c r="I231" s="38"/>
       <c r="J231" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K231" s="38" t="s">
         <v>844</v>
@@ -26979,7 +26976,7 @@
       </c>
       <c r="I232" s="38"/>
       <c r="J232" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K232" s="38" t="s">
         <v>844</v>
@@ -27022,7 +27019,7 @@
       </c>
       <c r="I233" s="38"/>
       <c r="J233" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K233" s="38" t="s">
         <v>844</v>
@@ -27065,7 +27062,7 @@
       </c>
       <c r="I234" s="38"/>
       <c r="J234" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K234" s="38" t="s">
         <v>844</v>
@@ -27108,7 +27105,7 @@
       </c>
       <c r="I235" s="38"/>
       <c r="J235" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K235" s="38" t="s">
         <v>844</v>
@@ -27151,7 +27148,7 @@
       </c>
       <c r="I236" s="38"/>
       <c r="J236" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K236" s="38" t="s">
         <v>844</v>
@@ -27194,7 +27191,7 @@
       </c>
       <c r="I237" s="38"/>
       <c r="J237" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K237" s="38" t="s">
         <v>844</v>
@@ -27237,7 +27234,7 @@
       </c>
       <c r="I238" s="38"/>
       <c r="J238" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K238" s="38" t="s">
         <v>844</v>
@@ -27280,7 +27277,7 @@
       </c>
       <c r="I239" s="38"/>
       <c r="J239" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K239" s="38" t="s">
         <v>844</v>
@@ -27323,7 +27320,7 @@
       </c>
       <c r="I240" s="38"/>
       <c r="J240" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K240" s="38" t="s">
         <v>844</v>
@@ -27366,7 +27363,7 @@
       </c>
       <c r="I241" s="38"/>
       <c r="J241" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K241" s="38" t="s">
         <v>844</v>
@@ -27409,7 +27406,7 @@
       </c>
       <c r="I242" s="38"/>
       <c r="J242" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K242" s="38" t="s">
         <v>844</v>
@@ -27452,7 +27449,7 @@
       </c>
       <c r="I243" s="38"/>
       <c r="J243" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K243" s="38" t="s">
         <v>844</v>
@@ -27495,7 +27492,7 @@
       </c>
       <c r="I244" s="38"/>
       <c r="J244" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K244" s="38" t="s">
         <v>844</v>
@@ -27538,7 +27535,7 @@
       </c>
       <c r="I245" s="38"/>
       <c r="J245" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K245" s="38" t="s">
         <v>844</v>
@@ -27581,7 +27578,7 @@
       </c>
       <c r="I246" s="38"/>
       <c r="J246" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K246" s="38" t="s">
         <v>844</v>
@@ -27624,7 +27621,7 @@
       </c>
       <c r="I247" s="38"/>
       <c r="J247" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K247" s="38" t="s">
         <v>844</v>
@@ -27665,7 +27662,7 @@
       </c>
       <c r="I248" s="38"/>
       <c r="J248" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K248" s="38" t="s">
         <v>844</v>
@@ -27708,7 +27705,7 @@
       </c>
       <c r="I249" s="38"/>
       <c r="J249" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K249" s="38" t="s">
         <v>844</v>
@@ -27751,7 +27748,7 @@
       </c>
       <c r="I250" s="38"/>
       <c r="J250" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K250" s="38" t="s">
         <v>844</v>
@@ -27794,7 +27791,7 @@
       </c>
       <c r="I251" s="38"/>
       <c r="J251" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K251" s="38" t="s">
         <v>844</v>
@@ -27837,7 +27834,7 @@
       </c>
       <c r="I252" s="38"/>
       <c r="J252" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K252" s="38" t="s">
         <v>844</v>
@@ -27880,7 +27877,7 @@
       </c>
       <c r="I253" s="38"/>
       <c r="J253" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K253" s="38" t="s">
         <v>844</v>
@@ -27923,7 +27920,7 @@
       </c>
       <c r="I254" s="38"/>
       <c r="J254" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K254" s="38" t="s">
         <v>844</v>
@@ -27966,7 +27963,7 @@
       </c>
       <c r="I255" s="38"/>
       <c r="J255" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K255" s="38" t="s">
         <v>844</v>
@@ -28009,7 +28006,7 @@
       </c>
       <c r="I256" s="38"/>
       <c r="J256" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K256" s="38" t="s">
         <v>844</v>
@@ -28052,7 +28049,7 @@
       </c>
       <c r="I257" s="38"/>
       <c r="J257" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K257" s="38" t="s">
         <v>844</v>
@@ -28095,7 +28092,7 @@
       </c>
       <c r="I258" s="38"/>
       <c r="J258" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K258" s="38" t="s">
         <v>844</v>
@@ -28136,7 +28133,7 @@
       </c>
       <c r="I259" s="38"/>
       <c r="J259" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K259" s="38" t="s">
         <v>844</v>
@@ -28177,7 +28174,7 @@
       </c>
       <c r="I260" s="38"/>
       <c r="J260" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K260" s="38" t="s">
         <v>844</v>
@@ -28218,7 +28215,7 @@
       </c>
       <c r="I261" s="38"/>
       <c r="J261" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K261" s="38" t="s">
         <v>844</v>
@@ -28261,7 +28258,7 @@
       </c>
       <c r="I262" s="38"/>
       <c r="J262" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K262" s="38" t="s">
         <v>844</v>
@@ -28304,7 +28301,7 @@
       </c>
       <c r="I263" s="38"/>
       <c r="J263" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K263" s="38" t="s">
         <v>844</v>
@@ -28347,7 +28344,7 @@
       </c>
       <c r="I264" s="38"/>
       <c r="J264" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K264" s="38" t="s">
         <v>844</v>
@@ -28390,7 +28387,7 @@
       </c>
       <c r="I265" s="38"/>
       <c r="J265" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K265" s="38" t="s">
         <v>844</v>
@@ -28433,7 +28430,7 @@
       </c>
       <c r="I266" s="38"/>
       <c r="J266" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K266" s="38" t="s">
         <v>844</v>
@@ -28476,7 +28473,7 @@
       </c>
       <c r="I267" s="38"/>
       <c r="J267" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K267" s="38" t="s">
         <v>844</v>
@@ -28519,7 +28516,7 @@
       </c>
       <c r="I268" s="38"/>
       <c r="J268" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K268" s="38" t="s">
         <v>844</v>
@@ -28562,7 +28559,7 @@
       </c>
       <c r="I269" s="38"/>
       <c r="J269" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K269" s="38" t="s">
         <v>844</v>
@@ -28605,7 +28602,7 @@
       </c>
       <c r="I270" s="38"/>
       <c r="J270" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K270" s="38" t="s">
         <v>844</v>
@@ -28648,7 +28645,7 @@
       </c>
       <c r="I271" s="38"/>
       <c r="J271" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K271" s="38" t="s">
         <v>844</v>
@@ -28691,7 +28688,7 @@
       </c>
       <c r="I272" s="38"/>
       <c r="J272" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K272" s="38" t="s">
         <v>844</v>
@@ -28734,7 +28731,7 @@
       </c>
       <c r="I273" s="38"/>
       <c r="J273" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K273" s="38" t="s">
         <v>844</v>
@@ -28777,7 +28774,7 @@
       </c>
       <c r="I274" s="38"/>
       <c r="J274" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K274" s="38" t="s">
         <v>844</v>
@@ -28820,7 +28817,7 @@
       </c>
       <c r="I275" s="38"/>
       <c r="J275" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K275" s="38" t="s">
         <v>844</v>
@@ -28863,7 +28860,7 @@
       </c>
       <c r="I276" s="38"/>
       <c r="J276" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K276" s="38" t="s">
         <v>844</v>
@@ -28906,7 +28903,7 @@
       </c>
       <c r="I277" s="38"/>
       <c r="J277" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K277" s="38" t="s">
         <v>844</v>
@@ -28949,7 +28946,7 @@
       </c>
       <c r="I278" s="38"/>
       <c r="J278" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K278" s="38" t="s">
         <v>844</v>
@@ -28992,7 +28989,7 @@
       </c>
       <c r="I279" s="38"/>
       <c r="J279" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K279" s="38" t="s">
         <v>844</v>
@@ -29035,7 +29032,7 @@
       </c>
       <c r="I280" s="38"/>
       <c r="J280" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K280" s="38" t="s">
         <v>844</v>
@@ -29078,7 +29075,7 @@
       </c>
       <c r="I281" s="38"/>
       <c r="J281" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K281" s="38" t="s">
         <v>844</v>
@@ -29121,7 +29118,7 @@
       </c>
       <c r="I282" s="38"/>
       <c r="J282" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K282" s="38" t="s">
         <v>844</v>
@@ -29164,7 +29161,7 @@
       </c>
       <c r="I283" s="38"/>
       <c r="J283" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K283" s="38" t="s">
         <v>844</v>
@@ -29204,7 +29201,7 @@
       </c>
       <c r="H284" s="51"/>
       <c r="J284" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K284" s="38" t="s">
         <v>844</v>
@@ -29235,7 +29232,7 @@
       </c>
       <c r="H285" s="51"/>
       <c r="J285" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K285" s="38" t="s">
         <v>844</v>
@@ -29266,7 +29263,7 @@
       </c>
       <c r="H286" s="51"/>
       <c r="J286" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K286" s="38" t="s">
         <v>844</v>
@@ -29297,7 +29294,7 @@
       </c>
       <c r="H287" s="51"/>
       <c r="J287" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K287" s="38" t="s">
         <v>844</v>
@@ -29328,7 +29325,7 @@
       </c>
       <c r="H288" s="51"/>
       <c r="J288" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K288" s="38" t="s">
         <v>844</v>
@@ -29359,7 +29356,7 @@
       </c>
       <c r="H289" s="51"/>
       <c r="J289" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K289" s="38" t="s">
         <v>844</v>
@@ -29390,7 +29387,7 @@
       </c>
       <c r="H290" s="51"/>
       <c r="J290" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K290" s="38" t="s">
         <v>844</v>
@@ -29421,7 +29418,7 @@
       </c>
       <c r="H291" s="51"/>
       <c r="J291" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K291" s="38" t="s">
         <v>844</v>
@@ -29452,7 +29449,7 @@
       </c>
       <c r="H292" s="51"/>
       <c r="J292" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K292" s="38" t="s">
         <v>844</v>
@@ -29483,7 +29480,7 @@
       </c>
       <c r="H293" s="51"/>
       <c r="J293" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K293" s="38" t="s">
         <v>844</v>
@@ -29514,7 +29511,7 @@
       </c>
       <c r="H294" s="51"/>
       <c r="J294" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K294" s="38" t="s">
         <v>844</v>
@@ -29545,7 +29542,7 @@
       </c>
       <c r="H295" s="51"/>
       <c r="J295" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K295" s="38" t="s">
         <v>844</v>
@@ -29576,7 +29573,7 @@
       </c>
       <c r="H296" s="51"/>
       <c r="J296" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K296" s="38" t="s">
         <v>844</v>
@@ -29607,7 +29604,7 @@
       </c>
       <c r="H297" s="51"/>
       <c r="J297" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K297" s="38" t="s">
         <v>844</v>
@@ -29638,7 +29635,7 @@
       </c>
       <c r="H298" s="51"/>
       <c r="J298" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K298" s="38" t="s">
         <v>844</v>
@@ -29669,7 +29666,7 @@
       </c>
       <c r="H299" s="51"/>
       <c r="J299" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K299" s="38" t="s">
         <v>844</v>
@@ -29700,7 +29697,7 @@
       </c>
       <c r="H300" s="51"/>
       <c r="J300" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K300" s="38" t="s">
         <v>844</v>
@@ -29731,7 +29728,7 @@
       </c>
       <c r="H301" s="51"/>
       <c r="J301" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K301" s="38" t="s">
         <v>844</v>
@@ -29762,7 +29759,7 @@
       </c>
       <c r="H302" s="51"/>
       <c r="J302" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K302" s="38" t="s">
         <v>844</v>
@@ -29793,7 +29790,7 @@
       </c>
       <c r="H303" s="51"/>
       <c r="J303" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K303" s="38" t="s">
         <v>844</v>
@@ -29824,7 +29821,7 @@
       </c>
       <c r="H304" s="51"/>
       <c r="J304" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K304" s="38" t="s">
         <v>844</v>
@@ -29855,7 +29852,7 @@
       </c>
       <c r="H305" s="51"/>
       <c r="J305" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K305" s="38" t="s">
         <v>844</v>
@@ -29886,7 +29883,7 @@
       </c>
       <c r="H306" s="51"/>
       <c r="J306" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K306" s="38" t="s">
         <v>844</v>
@@ -29917,7 +29914,7 @@
       </c>
       <c r="H307" s="51"/>
       <c r="J307" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K307" s="38" t="s">
         <v>844</v>
@@ -29948,7 +29945,7 @@
       </c>
       <c r="H308" s="51"/>
       <c r="J308" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K308" s="38" t="s">
         <v>844</v>
@@ -29979,7 +29976,7 @@
       </c>
       <c r="H309" s="51"/>
       <c r="J309" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K309" s="38" t="s">
         <v>844</v>
@@ -30010,7 +30007,7 @@
       </c>
       <c r="H310" s="51"/>
       <c r="J310" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K310" s="38" t="s">
         <v>844</v>
@@ -30041,7 +30038,7 @@
       </c>
       <c r="H311" s="51"/>
       <c r="J311" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K311" s="38" t="s">
         <v>844</v>
@@ -30072,7 +30069,7 @@
       </c>
       <c r="H312" s="51"/>
       <c r="J312" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K312" s="38" t="s">
         <v>844</v>
@@ -30103,7 +30100,7 @@
       </c>
       <c r="H313" s="51"/>
       <c r="J313" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K313" s="38" t="s">
         <v>844</v>
@@ -30134,7 +30131,7 @@
       </c>
       <c r="H314" s="51"/>
       <c r="J314" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K314" s="38" t="s">
         <v>844</v>
@@ -30165,7 +30162,7 @@
       </c>
       <c r="H315" s="51"/>
       <c r="J315" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K315" s="38" t="s">
         <v>844</v>
@@ -30196,7 +30193,7 @@
       </c>
       <c r="H316" s="51"/>
       <c r="J316" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K316" s="38" t="s">
         <v>844</v>
@@ -30227,7 +30224,7 @@
       </c>
       <c r="H317" s="51"/>
       <c r="J317" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K317" s="38" t="s">
         <v>844</v>
@@ -30258,7 +30255,7 @@
       </c>
       <c r="H318" s="51"/>
       <c r="J318" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K318" s="38" t="s">
         <v>844</v>
@@ -30289,7 +30286,7 @@
       </c>
       <c r="H319" s="51"/>
       <c r="J319" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K319" s="38" t="s">
         <v>844</v>
@@ -30320,7 +30317,7 @@
       </c>
       <c r="H320" s="51"/>
       <c r="J320" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K320" s="38" t="s">
         <v>844</v>
@@ -30351,7 +30348,7 @@
       </c>
       <c r="H321" s="51"/>
       <c r="J321" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K321" s="38" t="s">
         <v>844</v>
@@ -30382,7 +30379,7 @@
       </c>
       <c r="H322" s="51"/>
       <c r="J322" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K322" s="38" t="s">
         <v>844</v>
@@ -30413,7 +30410,7 @@
       </c>
       <c r="H323" s="51"/>
       <c r="J323" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K323" s="38" t="s">
         <v>844</v>
@@ -30444,7 +30441,7 @@
       </c>
       <c r="H324" s="51"/>
       <c r="J324" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K324" s="38" t="s">
         <v>844</v>
@@ -30475,7 +30472,7 @@
       </c>
       <c r="H325" s="51"/>
       <c r="J325" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K325" s="38" t="s">
         <v>844</v>
@@ -30506,7 +30503,7 @@
       </c>
       <c r="H326" s="51"/>
       <c r="J326" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K326" s="38" t="s">
         <v>844</v>
@@ -30537,7 +30534,7 @@
       </c>
       <c r="H327" s="51"/>
       <c r="J327" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K327" s="38" t="s">
         <v>844</v>
@@ -30568,13 +30565,13 @@
       </c>
       <c r="H328" s="51"/>
       <c r="J328" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K328" s="38" t="s">
         <v>844</v>
       </c>
       <c r="R328" s="40" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="S328" s="38">
         <v>1</v>
@@ -30602,7 +30599,7 @@
       </c>
       <c r="H329" s="51"/>
       <c r="J329" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K329" s="38" t="s">
         <v>844</v>
@@ -30633,7 +30630,7 @@
       </c>
       <c r="H330" s="51"/>
       <c r="J330" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K330" s="38" t="s">
         <v>844</v>
@@ -30664,7 +30661,7 @@
       </c>
       <c r="H331" s="51"/>
       <c r="J331" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K331" s="38" t="s">
         <v>844</v>
@@ -30695,7 +30692,7 @@
       </c>
       <c r="H332" s="51"/>
       <c r="J332" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K332" s="38" t="s">
         <v>844</v>
@@ -30726,7 +30723,7 @@
       </c>
       <c r="H333" s="51"/>
       <c r="J333" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K333" s="38" t="s">
         <v>844</v>
@@ -30757,7 +30754,7 @@
       </c>
       <c r="H334" s="51"/>
       <c r="J334" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K334" s="38" t="s">
         <v>844</v>
@@ -30788,7 +30785,7 @@
       </c>
       <c r="H335" s="51"/>
       <c r="J335" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K335" s="38" t="s">
         <v>844</v>
@@ -30819,7 +30816,7 @@
       </c>
       <c r="H336" s="51"/>
       <c r="J336" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K336" s="38" t="s">
         <v>844</v>
@@ -30850,7 +30847,7 @@
       </c>
       <c r="H337" s="51"/>
       <c r="J337" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K337" s="38" t="s">
         <v>844</v>
@@ -30881,7 +30878,7 @@
       </c>
       <c r="H338" s="51"/>
       <c r="J338" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K338" s="38" t="s">
         <v>844</v>
@@ -30912,7 +30909,7 @@
       </c>
       <c r="H339" s="51"/>
       <c r="J339" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K339" s="38" t="s">
         <v>844</v>
@@ -30943,7 +30940,7 @@
       </c>
       <c r="H340" s="51"/>
       <c r="J340" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K340" s="38" t="s">
         <v>844</v>
@@ -30974,7 +30971,7 @@
       </c>
       <c r="H341" s="51"/>
       <c r="J341" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K341" s="38" t="s">
         <v>844</v>
@@ -31005,7 +31002,7 @@
       </c>
       <c r="H342" s="51"/>
       <c r="J342" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K342" s="38" t="s">
         <v>844</v>
@@ -31036,7 +31033,7 @@
       </c>
       <c r="H343" s="51"/>
       <c r="J343" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K343" s="38" t="s">
         <v>844</v>
@@ -31067,7 +31064,7 @@
       </c>
       <c r="H344" s="51"/>
       <c r="J344" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K344" s="38" t="s">
         <v>844</v>
@@ -31098,7 +31095,7 @@
       </c>
       <c r="H345" s="51"/>
       <c r="J345" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K345" s="38" t="s">
         <v>844</v>
@@ -31129,7 +31126,7 @@
       </c>
       <c r="H346" s="51"/>
       <c r="J346" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K346" s="38" t="s">
         <v>844</v>
@@ -31160,7 +31157,7 @@
       </c>
       <c r="H347" s="51"/>
       <c r="J347" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K347" s="38" t="s">
         <v>844</v>
@@ -31191,7 +31188,7 @@
       </c>
       <c r="H348" s="51"/>
       <c r="J348" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K348" s="38" t="s">
         <v>844</v>
@@ -31222,7 +31219,7 @@
       </c>
       <c r="H349" s="51"/>
       <c r="J349" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K349" s="38" t="s">
         <v>844</v>
@@ -31245,7 +31242,7 @@
         <v>Набор мебели "Венеция" КМК 0414, в т.ч. дуб санома</v>
       </c>
       <c r="D350" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F350" s="51"/>
       <c r="G350" s="38" t="s">
@@ -31253,7 +31250,7 @@
       </c>
       <c r="H350" s="51"/>
       <c r="J350" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K350" s="38" t="s">
         <v>844</v>
@@ -31276,7 +31273,7 @@
         <v>Набор мебели "Венеция" КМК 0414, в т.ч. орех шоколадный</v>
       </c>
       <c r="D351" s="58" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F351" s="51"/>
       <c r="G351" s="38" t="s">
@@ -31284,7 +31281,7 @@
       </c>
       <c r="H351" s="51"/>
       <c r="J351" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K351" s="38" t="s">
         <v>844</v>
@@ -31315,7 +31312,7 @@
       </c>
       <c r="H352" s="51"/>
       <c r="J352" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K352" s="38" t="s">
         <v>844</v>
@@ -31338,7 +31335,7 @@
         <v>Набор мебели "Комфорт" КМК 0415, в т.ч. дуб венге, жемчуг</v>
       </c>
       <c r="D353" s="58" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F353" s="51"/>
       <c r="G353" s="38" t="s">
@@ -31346,7 +31343,7 @@
       </c>
       <c r="H353" s="51"/>
       <c r="J353" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K353" s="38" t="s">
         <v>844</v>
@@ -31377,7 +31374,7 @@
       </c>
       <c r="H354" s="51"/>
       <c r="J354" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K354" s="38" t="s">
         <v>844</v>
@@ -31408,7 +31405,7 @@
       </c>
       <c r="H355" s="51"/>
       <c r="J355" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K355" s="38" t="s">
         <v>844</v>
@@ -31439,7 +31436,7 @@
       </c>
       <c r="H356" s="51"/>
       <c r="J356" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K356" s="38" t="s">
         <v>844</v>
@@ -31470,7 +31467,7 @@
       </c>
       <c r="H357" s="51"/>
       <c r="J357" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K357" s="38" t="s">
         <v>844</v>
@@ -31501,7 +31498,7 @@
       </c>
       <c r="H358" s="51"/>
       <c r="J358" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K358" s="38" t="s">
         <v>844</v>
@@ -31532,7 +31529,7 @@
       </c>
       <c r="H359" s="51"/>
       <c r="J359" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K359" s="38" t="s">
         <v>844</v>
@@ -31563,7 +31560,7 @@
       </c>
       <c r="H360" s="51"/>
       <c r="J360" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K360" s="38" t="s">
         <v>844</v>
@@ -31594,7 +31591,7 @@
       </c>
       <c r="H361" s="51"/>
       <c r="J361" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K361" s="38" t="s">
         <v>844</v>
@@ -31625,7 +31622,7 @@
       </c>
       <c r="H362" s="51"/>
       <c r="J362" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K362" s="38" t="s">
         <v>844</v>
@@ -31656,7 +31653,7 @@
       </c>
       <c r="H363" s="51"/>
       <c r="J363" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K363" s="38" t="s">
         <v>844</v>
@@ -31687,7 +31684,7 @@
       </c>
       <c r="H364" s="51"/>
       <c r="J364" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K364" s="38" t="s">
         <v>844</v>
@@ -31718,7 +31715,7 @@
       </c>
       <c r="H365" s="51"/>
       <c r="J365" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K365" s="38" t="s">
         <v>844</v>
@@ -31749,7 +31746,7 @@
       </c>
       <c r="H366" s="51"/>
       <c r="J366" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K366" s="38" t="s">
         <v>844</v>
@@ -31780,7 +31777,7 @@
       </c>
       <c r="H367" s="51"/>
       <c r="J367" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K367" s="38" t="s">
         <v>844</v>
@@ -31811,7 +31808,7 @@
       </c>
       <c r="H368" s="51"/>
       <c r="J368" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K368" s="38" t="s">
         <v>844</v>
@@ -31842,7 +31839,7 @@
       </c>
       <c r="H369" s="51"/>
       <c r="J369" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K369" s="38" t="s">
         <v>844</v>
@@ -31873,7 +31870,7 @@
       </c>
       <c r="H370" s="51"/>
       <c r="J370" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K370" s="38" t="s">
         <v>844</v>
@@ -31904,7 +31901,7 @@
       </c>
       <c r="H371" s="51"/>
       <c r="J371" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K371" s="38" t="s">
         <v>844</v>
@@ -31935,7 +31932,7 @@
       </c>
       <c r="H372" s="51"/>
       <c r="J372" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K372" s="38" t="s">
         <v>844</v>
@@ -31966,7 +31963,7 @@
       </c>
       <c r="H373" s="51"/>
       <c r="J373" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K373" s="38" t="s">
         <v>844</v>
@@ -31997,7 +31994,7 @@
       </c>
       <c r="H374" s="51"/>
       <c r="J374" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K374" s="38" t="s">
         <v>844</v>
@@ -32028,7 +32025,7 @@
       </c>
       <c r="H375" s="51"/>
       <c r="J375" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K375" s="38" t="s">
         <v>844</v>
@@ -32059,7 +32056,7 @@
       </c>
       <c r="H376" s="51"/>
       <c r="J376" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K376" s="38" t="s">
         <v>844</v>
@@ -32082,7 +32079,7 @@
         <v>Табурет "08" КМК 033</v>
       </c>
       <c r="D377" s="58" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F377" s="51"/>
       <c r="G377" s="38" t="s">
@@ -32090,7 +32087,7 @@
       </c>
       <c r="H377" s="51"/>
       <c r="J377" s="38" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K377" s="38" t="s">
         <v>844</v>
